--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.2364713333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.709414</v>
+      </c>
+      <c r="I2">
+        <v>0.002249544876489787</v>
+      </c>
+      <c r="J2">
+        <v>0.002249544876489787</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.529781</v>
-      </c>
-      <c r="H2">
-        <v>4.589343</v>
-      </c>
-      <c r="I2">
-        <v>0.01315047351877542</v>
-      </c>
-      <c r="J2">
-        <v>0.01315047351877542</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>51.23401333333334</v>
+        <v>0.493155</v>
       </c>
       <c r="N2">
-        <v>153.70204</v>
+        <v>1.479465</v>
       </c>
       <c r="O2">
-        <v>0.9688226788583661</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="P2">
-        <v>0.9688226788583661</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="Q2">
-        <v>78.37682015108001</v>
+        <v>0.11661702039</v>
       </c>
       <c r="R2">
-        <v>705.3913813597201</v>
+        <v>1.04955318351</v>
       </c>
       <c r="S2">
-        <v>0.01274047698271601</v>
+        <v>0.0005089669866804777</v>
       </c>
       <c r="T2">
-        <v>0.01274047698271601</v>
+        <v>0.0005089669866804777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H3">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>4.946228</v>
       </c>
       <c r="O3">
-        <v>0.03117732114163389</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="P3">
-        <v>0.03117732114163389</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="Q3">
-        <v>2.522215205355999</v>
+        <v>0.3898803767102222</v>
       </c>
       <c r="R3">
-        <v>22.699936848204</v>
+        <v>3.508923390392</v>
       </c>
       <c r="S3">
-        <v>0.0004099965360594135</v>
+        <v>0.001701606162088732</v>
       </c>
       <c r="T3">
-        <v>0.0004099965360594135</v>
+        <v>0.001701606162088732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.676216</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H4">
-        <v>311.028648</v>
+        <v>0.709414</v>
       </c>
       <c r="I4">
-        <v>0.8912330150752564</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J4">
-        <v>0.8912330150752563</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>51.23401333333334</v>
+        <v>0.037761</v>
       </c>
       <c r="N4">
-        <v>153.70204</v>
+        <v>0.113283</v>
       </c>
       <c r="O4">
-        <v>0.9688226788583661</v>
+        <v>0.01732427217961956</v>
       </c>
       <c r="P4">
-        <v>0.9688226788583661</v>
+        <v>0.01732427217961956</v>
       </c>
       <c r="Q4">
-        <v>5311.748632893547</v>
+        <v>0.008929394017999999</v>
       </c>
       <c r="R4">
-        <v>47805.73769604193</v>
+        <v>0.08036454616199999</v>
       </c>
       <c r="S4">
-        <v>0.8634467571522285</v>
+        <v>3.897172772057774E-05</v>
       </c>
       <c r="T4">
-        <v>0.8634467571522284</v>
+        <v>3.897172772057774E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>311.028648</v>
       </c>
       <c r="I5">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J5">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.648742666666666</v>
+        <v>0.493155</v>
       </c>
       <c r="N5">
-        <v>4.946228</v>
+        <v>1.479465</v>
       </c>
       <c r="O5">
-        <v>0.03117732114163389</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="P5">
-        <v>0.03117732114163389</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="Q5">
-        <v>170.9354008377493</v>
+        <v>51.12844430148</v>
       </c>
       <c r="R5">
-        <v>1538.418607539744</v>
+        <v>460.1559987133199</v>
       </c>
       <c r="S5">
-        <v>0.02778625792302791</v>
+        <v>0.2231465882317842</v>
       </c>
       <c r="T5">
-        <v>0.0277862579230279</v>
+        <v>0.2231465882317842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.12297</v>
+        <v>103.676216</v>
       </c>
       <c r="H6">
-        <v>33.36891</v>
+        <v>311.028648</v>
       </c>
       <c r="I6">
-        <v>0.09561651140596822</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J6">
-        <v>0.09561651140596822</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>51.23401333333334</v>
+        <v>1.648742666666666</v>
       </c>
       <c r="N6">
-        <v>153.70204</v>
+        <v>4.946228</v>
       </c>
       <c r="O6">
-        <v>0.9688226788583661</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="P6">
-        <v>0.9688226788583661</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="Q6">
-        <v>569.8743932862668</v>
+        <v>170.9354008377493</v>
       </c>
       <c r="R6">
-        <v>5128.869539576402</v>
+        <v>1538.418607539744</v>
       </c>
       <c r="S6">
-        <v>0.09263544472342165</v>
+        <v>0.7460358324235595</v>
       </c>
       <c r="T6">
-        <v>0.09263544472342165</v>
+        <v>0.7460358324235595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.12297</v>
+        <v>103.676216</v>
       </c>
       <c r="H7">
-        <v>33.36891</v>
+        <v>311.028648</v>
       </c>
       <c r="I7">
-        <v>0.09561651140596822</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J7">
-        <v>0.09561651140596822</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.037761</v>
+      </c>
+      <c r="N7">
+        <v>0.113283</v>
+      </c>
+      <c r="O7">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="P7">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="Q7">
+        <v>3.914917592375999</v>
+      </c>
+      <c r="R7">
+        <v>35.234258331384</v>
+      </c>
+      <c r="S7">
+        <v>0.0170863893060405</v>
+      </c>
+      <c r="T7">
+        <v>0.0170863893060405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.206946333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.620839</v>
+      </c>
+      <c r="I8">
+        <v>0.01148164516212593</v>
+      </c>
+      <c r="J8">
+        <v>0.01148164516212593</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
+      <c r="M8">
+        <v>0.493155</v>
+      </c>
+      <c r="N8">
+        <v>1.479465</v>
+      </c>
+      <c r="O8">
+        <v>0.2262533155038342</v>
+      </c>
+      <c r="P8">
+        <v>0.2262533155038342</v>
+      </c>
+      <c r="Q8">
+        <v>0.5952116190150001</v>
+      </c>
+      <c r="R8">
+        <v>5.356904571135001</v>
+      </c>
+      <c r="S8">
+        <v>0.00259776028536955</v>
+      </c>
+      <c r="T8">
+        <v>0.002597760285369551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.206946333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.620839</v>
+      </c>
+      <c r="I9">
+        <v>0.01148164516212593</v>
+      </c>
+      <c r="J9">
+        <v>0.01148164516212593</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
         <v>1.648742666666666</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>4.946228</v>
       </c>
-      <c r="O7">
-        <v>0.03117732114163389</v>
-      </c>
-      <c r="P7">
-        <v>0.03117732114163389</v>
-      </c>
-      <c r="Q7">
-        <v>18.33891521905333</v>
-      </c>
-      <c r="R7">
-        <v>165.05023697148</v>
-      </c>
-      <c r="S7">
-        <v>0.002981066682546571</v>
-      </c>
-      <c r="T7">
-        <v>0.002981066682546571</v>
+      <c r="O9">
+        <v>0.7564224123165462</v>
+      </c>
+      <c r="P9">
+        <v>0.7564224123165462</v>
+      </c>
+      <c r="Q9">
+        <v>1.989943916143555</v>
+      </c>
+      <c r="R9">
+        <v>17.909495245292</v>
+      </c>
+      <c r="S9">
+        <v>0.008684973730897898</v>
+      </c>
+      <c r="T9">
+        <v>0.0086849737308979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.206946333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.620839</v>
+      </c>
+      <c r="I10">
+        <v>0.01148164516212593</v>
+      </c>
+      <c r="J10">
+        <v>0.01148164516212593</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.037761</v>
+      </c>
+      <c r="N10">
+        <v>0.113283</v>
+      </c>
+      <c r="O10">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="P10">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="Q10">
+        <v>0.045575500493</v>
+      </c>
+      <c r="R10">
+        <v>0.410179504437</v>
+      </c>
+      <c r="S10">
+        <v>0.0001989111458584818</v>
+      </c>
+      <c r="T10">
+        <v>0.0001989111458584818</v>
       </c>
     </row>
   </sheetData>
